--- a/data/Professional Personnel Individual Staff Report Notes and Data Elements.xlsx
+++ b/data/Professional Personnel Individual Staff Report Notes and Data Elements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bheimbach\Desktop\Web Dump\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://office365stanford-my.sharepoint.com/personal/izhong_stanford_edu/Documents/Stanford/covid_teacher_attrition/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDDC9ABD-50F9-4DEF-B6B2-1A2B1A67C746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{EDDC9ABD-50F9-4DEF-B6B2-1A2B1A67C746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{243099CF-D267-4637-8668-0623F91D6566}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B1315696-6535-4817-8FD5-79462123D322}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{B1315696-6535-4817-8FD5-79462123D322}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Elements" sheetId="1" r:id="rId1"/>
@@ -752,57 +752,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0661E917-906F-400D-B5A3-9EA67EC482DB}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="8"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -810,7 +810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -818,7 +818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -826,7 +826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -834,7 +834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -842,7 +842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
@@ -850,7 +850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -858,7 +858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -866,7 +866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -874,7 +874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -882,7 +882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -890,7 +890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -898,7 +898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
@@ -906,7 +906,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -914,7 +914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
@@ -922,7 +922,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>36</v>
       </c>
@@ -930,7 +930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
@@ -938,7 +938,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
@@ -946,7 +946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>42</v>
       </c>
@@ -954,7 +954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
@@ -962,7 +962,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
@@ -970,7 +970,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>48</v>
       </c>
@@ -978,7 +978,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>50</v>
       </c>
@@ -986,7 +986,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>52</v>
       </c>
@@ -994,7 +994,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>54</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>56</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>62</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>64</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>66</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>70</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>72</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>74</v>
       </c>
@@ -1099,80 +1099,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F1663D-71D3-4525-A2EE-4D896B42A646}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="42.86328125" customWidth="1"/>
+    <col min="2" max="2" width="34.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="8"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
     </row>
@@ -1192,6 +1192,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010063A4E9D8B9AE294BB8664582FC3229C4" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab5e3be8eaf3cd0fb5535aa68510e8f5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="daabebb8d57a36d92a4894986269ef22" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1323,32 +1341,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5AA5F4E-387C-4DF8-9315-D30F60A4E065}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D9F211E-74D6-4B6B-8B2F-BD3C1A44CEC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{215A6A75-0FBB-4F1F-A3EA-2976B643DE37}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{215A6A75-0FBB-4F1F-A3EA-2976B643DE37}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D9F211E-74D6-4B6B-8B2F-BD3C1A44CEC2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5AA5F4E-387C-4DF8-9315-D30F60A4E065}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Professional Personnel Individual Staff Report Notes and Data Elements.xlsx
+++ b/data/Professional Personnel Individual Staff Report Notes and Data Elements.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{EDDC9ABD-50F9-4DEF-B6B2-1A2B1A67C746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{243099CF-D267-4637-8668-0623F91D6566}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{B1315696-6535-4817-8FD5-79462123D322}"/>
+    <workbookView minimized="1" xWindow="1155" yWindow="0" windowWidth="15555" windowHeight="12195" xr2:uid="{B1315696-6535-4817-8FD5-79462123D322}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Elements" sheetId="1" r:id="rId1"/>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0661E917-906F-400D-B5A3-9EA67EC482DB}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1192,24 +1192,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010063A4E9D8B9AE294BB8664582FC3229C4" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab5e3be8eaf3cd0fb5535aa68510e8f5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="daabebb8d57a36d92a4894986269ef22" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1341,25 +1323,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D9F211E-74D6-4B6B-8B2F-BD3C1A44CEC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{215A6A75-0FBB-4F1F-A3EA-2976B643DE37}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5AA5F4E-387C-4DF8-9315-D30F60A4E065}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1375,4 +1357,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D9F211E-74D6-4B6B-8B2F-BD3C1A44CEC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{215A6A75-0FBB-4F1F-A3EA-2976B643DE37}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Professional Personnel Individual Staff Report Notes and Data Elements.xlsx
+++ b/data/Professional Personnel Individual Staff Report Notes and Data Elements.xlsx
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0661E917-906F-400D-B5A3-9EA67EC482DB}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1192,6 +1192,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010063A4E9D8B9AE294BB8664582FC3229C4" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab5e3be8eaf3cd0fb5535aa68510e8f5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="daabebb8d57a36d92a4894986269ef22" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1323,25 +1341,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{215A6A75-0FBB-4F1F-A3EA-2976B643DE37}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D9F211E-74D6-4B6B-8B2F-BD3C1A44CEC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5AA5F4E-387C-4DF8-9315-D30F60A4E065}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1357,22 +1375,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D9F211E-74D6-4B6B-8B2F-BD3C1A44CEC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{215A6A75-0FBB-4F1F-A3EA-2976B643DE37}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>